--- a/isp_summary_report.xlsx
+++ b/isp_summary_report.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>เฉลี่ยต่อหัว (บาท)</t>
+          <t>เฉลี่ยตัวหัว (บาท)</t>
         </is>
       </c>
     </row>
